--- a/PerformanceCounters.xlsx
+++ b/PerformanceCounters.xlsx
@@ -1184,7 +1184,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,8 +1196,8 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="85" customWidth="1"/>
-    <col min="9" max="9" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80" customWidth="1"/>
+    <col min="10" max="10" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3597,12 +3597,12 @@
         <v>168</v>
       </c>
       <c r="I96" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits"</v>
+        <f t="shared" ref="I96:I98" si="13">CONCATENATE(CHAR(34),"\\",$B$2,"\",A96,"\",B96,"\",C96,CHAR(34))</f>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits\Average wait time (ms)"</v>
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits"</v>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits\Average wait time (ms)"</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3623,15 +3623,15 @@
         <v>169</v>
       </c>
       <c r="I97" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits"</v>
+        <f t="shared" si="13"/>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits\Waits in progress"</v>
       </c>
       <c r="J97" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits"</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits\Waits in progress"</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>109</v>
       </c>
@@ -3657,12 +3657,12 @@
         <v>221</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Network IO waits"</v>
+        <f t="shared" si="13"/>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Network IO waits\Average wait time (ms)"</v>
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Network IO waits"</v>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Network IO waits\Average wait time (ms)"</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">

--- a/PerformanceCounters.xlsx
+++ b/PerformanceCounters.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRIVATE\Dysk Google\_SZKOLENIA_\_SQLSERVER_\_SKRYPTY_\MONITORING\PerformanceCounters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRIVATE\Dysk Google\_SZKOLENIA_\_SQLSERVER_\_SKRYPTY_\_MyTSQL_\MONITORING\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$K$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
   <si>
     <t>Memory</t>
   </si>
@@ -735,6 +735,285 @@
   </si>
   <si>
     <t>SQLInstance</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\% Free Space</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\% Idle Time</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Transfers/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Reads/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Writes/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Avg. Disk Queue Length</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Avg. Disk sec/Read</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Avg. Disk sec/Write</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Bytes/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Read Bytes/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Disk Write Bytes/sec</t>
+  </si>
+  <si>
+    <t>\LogicalDisk(*)\Free Megabytes</t>
+  </si>
+  <si>
+    <t>\Memory\Available MBytes</t>
+  </si>
+  <si>
+    <t>\Memory\Pages/sec</t>
+  </si>
+  <si>
+    <t>\Network Interface(*)\Bytes Received/sec</t>
+  </si>
+  <si>
+    <t>\Network Interface(*)\Bytes Sent/sec</t>
+  </si>
+  <si>
+    <t>\Network Interface(*)\Bytes Total/sec</t>
+  </si>
+  <si>
+    <t>\Network Interface(*)\Output Queue Length</t>
+  </si>
+  <si>
+    <t>\Paging File(_Total)\% Usage</t>
+  </si>
+  <si>
+    <t>\PhysicalDisk(*)\Disk Reads/sec</t>
+  </si>
+  <si>
+    <t>\PhysicalDisk(*)\Disk Transfers/sec</t>
+  </si>
+  <si>
+    <t>\PhysicalDisk(*)\Disk Writes/sec</t>
+  </si>
+  <si>
+    <t>\Process(SQLAGENT)\% Processor Time</t>
+  </si>
+  <si>
+    <t>\Process(sqlservr)\% Processor Time</t>
+  </si>
+  <si>
+    <t>\Process(sqlservr)\% User Time</t>
+  </si>
+  <si>
+    <t>\Process(sqlservr)\% Privileged Time</t>
+  </si>
+  <si>
+    <t>\Processor(_Total)\% Privileged Time</t>
+  </si>
+  <si>
+    <t>\Processor(_Total)\% Processor Time</t>
+  </si>
+  <si>
+    <t>\Processor(_Total)\% User Time</t>
+  </si>
+  <si>
+    <t>\SQLServer:Access Methods\Forwarded Records/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Access Methods\Full Scans/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Access Methods\Index Searches/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Access Methods\Page Splits/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Buffer cache hit ratio</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Checkpoint pages/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Lazy writes/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Page life expectancy</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Page reads/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Buffer Manager\Page writes/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Data File(s) Size (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log File(s) Size (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log File(s) Used Size (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Percent Log Used</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Active Transactions</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Transactions/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log Flushes/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log Bytes Flushed/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log Flush Waits/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Databases(*)\Log Flush Write Time (ms)</t>
+  </si>
+  <si>
+    <t>\SQLServer:General Statistics\Active Temp Tables</t>
+  </si>
+  <si>
+    <t>\SQLServer:General Statistics\Logical Connections</t>
+  </si>
+  <si>
+    <t>\SQLServer:General Statistics\Logins/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:General Statistics\Logouts/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:General Statistics\User Connections</t>
+  </si>
+  <si>
+    <t>\SQLServer:Latches\Average Latch Wait Time (ms)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Latches\Latch Waits/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Latches\Total Latch Wait Time (ms)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Average Wait Time (ms)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Lock Requests/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Lock Timeouts/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Lock Wait Time (ms)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Lock Waits/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Locks(_Total)\Number of Deadlocks/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Connection Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Database Cache Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Lock Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Lock Owner Blocks</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Lock Owner Blocks Allocated</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Maximum Workspace Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Memory Grants Pending</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\SQL Cache Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Stolen Server Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Target Server Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Memory Manager\Total Server Memory (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Plan Cache(_Total)\Cache Hit Ratio</t>
+  </si>
+  <si>
+    <t>\SQLServer:Plan Cache(_Total)\Cache Object Counts</t>
+  </si>
+  <si>
+    <t>\SQLServer:Plan Cache(_Total)\Cache Pages</t>
+  </si>
+  <si>
+    <t>\SQLServer:Plan Cache(_Total)\Cache Objects in use</t>
+  </si>
+  <si>
+    <t>\SQLServer:SQL Errors(*)\*</t>
+  </si>
+  <si>
+    <t>\SQLServer:SQL Statistics\Batch Requests/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:SQL Statistics\SQL Compilations/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:SQL Statistics\SQL Re-Compilations/sec</t>
+  </si>
+  <si>
+    <t>\SQLServer:Transactions\Free Space in tempdb (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Transactions\Transactions</t>
+  </si>
+  <si>
+    <t>\SQLServer:Transactions\Version Store Size (KB)</t>
+  </si>
+  <si>
+    <t>\SQLServer:Transactions\Version Store unit count</t>
+  </si>
+  <si>
+    <t>\SQLServer:Wait Statistics(Average wait time (ms))\Lock waits</t>
+  </si>
+  <si>
+    <t>\SQLServer:Wait Statistics(Waits in progress)\Lock waits</t>
+  </si>
+  <si>
+    <t>\SQLServer:Wait Statistics(Average wait time (ms))\Network IO waits</t>
+  </si>
+  <si>
+    <t>\System\Processor Queue Length</t>
+  </si>
+  <si>
+    <t>\Process(sqlbrowser)\% Processor Time</t>
+  </si>
+  <si>
+    <t>Symbol licznika</t>
   </si>
 </sst>
 </file>
@@ -783,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -862,11 +1141,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,6 +1203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,11 +1491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,16 +1503,17 @@
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="85" customWidth="1"/>
-    <col min="9" max="9" width="80" customWidth="1"/>
-    <col min="10" max="10" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="85" customWidth="1"/>
+    <col min="10" max="10" width="80" customWidth="1"/>
+    <col min="11" max="11" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>232</v>
       </c>
@@ -1209,7 +1521,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>234</v>
       </c>
@@ -1217,7 +1529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>120</v>
       </c>
@@ -1227,43 +1539,47 @@
       <c r="C5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1273,27 +1589,30 @@
       <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A7,"(*)\",B7,CHAR(34))</f>
+      <c r="J7" s="4" t="str">
+        <f>CONCATENATE(CHAR(34),"\\",$B$2,D7,CHAR(34))</f>
         <v>"\\MONITORSQL1\LogicalDisk(*)\% Free Space"</v>
       </c>
-      <c r="J7" s="4" t="str">
-        <f>I7</f>
+      <c r="K7" s="4" t="str">
+        <f>J7</f>
         <v>"\\MONITORSQL1\LogicalDisk(*)\% Free Space"</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -1303,27 +1622,30 @@
       <c r="C8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" ref="I8:I18" si="0">CONCATENATE(CHAR(34),"\\",$B$2,"\",A8,"(*)\",B8,CHAR(34))</f>
+      <c r="J8" s="4" t="str">
+        <f t="shared" ref="J8:J71" si="0">CONCATENATE(CHAR(34),"\\",$B$2,D8,CHAR(34))</f>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Free Megabytes"</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" ref="J8:J36" si="1">I8</f>
+      <c r="K8" s="4" t="str">
+        <f t="shared" ref="K8:K36" si="1">J8</f>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Free Megabytes"</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -1333,23 +1655,26 @@
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Transfers/sec"</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Transfers/sec"</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -1359,23 +1684,26 @@
       <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Reads/sec"</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Reads/sec"</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -1385,23 +1713,26 @@
       <c r="C11" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Writes/sec"</v>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Writes/sec"</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1411,23 +1742,26 @@
       <c r="C12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="4" t="str">
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk Queue Length"</v>
       </c>
-      <c r="J12" s="4" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk Queue Length"</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1437,31 +1771,34 @@
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>6000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.3125</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="4" t="str">
+      <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Read"</v>
       </c>
-      <c r="J13" s="4" t="str">
+      <c r="K13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Read"</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1471,31 +1808,34 @@
       <c r="C14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>0.3125</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="4" t="str">
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Write"</v>
       </c>
-      <c r="J14" s="4" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Write"</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1505,23 +1845,26 @@
       <c r="C15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="4" t="str">
+      <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Bytes/sec"</v>
       </c>
-      <c r="J15" s="4" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Bytes/sec"</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1531,23 +1874,26 @@
       <c r="C16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="4" t="str">
+      <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Read Bytes/sec"</v>
       </c>
-      <c r="J16" s="4" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Read Bytes/sec"</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1557,23 +1903,26 @@
       <c r="C17" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="4" t="str">
+      <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Write Bytes/sec"</v>
       </c>
-      <c r="J17" s="4" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Write Bytes/sec"</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -1583,23 +1932,26 @@
       <c r="C18" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="4" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\% Idle Time"</v>
       </c>
-      <c r="J18" s="4" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\LogicalDisk(*)\% Idle Time"</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1607,23 +1959,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A19,"\",B19,CHAR(34))</f>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Memory\Pages/sec"</v>
       </c>
-      <c r="J19" s="4" t="str">
+      <c r="K19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Memory\Pages/sec"</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -1631,27 +1986,30 @@
         <v>2</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>300</v>
       </c>
-      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A20,"\",B20,CHAR(34))</f>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Memory\Available MBytes"</v>
       </c>
-      <c r="J20" s="4" t="str">
+      <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Memory\Available MBytes"</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -1661,23 +2019,26 @@
       <c r="C21" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="4" t="str">
-        <f t="shared" ref="I21:I28" si="2">CONCATENATE(CHAR(34),"\\",$B$2,"\",A21,"(*)\",B21,CHAR(34))</f>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Total/sec"</v>
       </c>
-      <c r="J21" s="4" t="str">
+      <c r="K21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Total/sec"</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -1687,23 +2048,26 @@
       <c r="C22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Received/sec"</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Received/sec"</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -1713,23 +2077,26 @@
       <c r="C23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Sent/sec"</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="K23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Bytes Sent/sec"</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -1739,23 +2106,26 @@
       <c r="C24" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Output Queue Length"</v>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="K24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\Network Interface(*)\Output Queue Length"</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -1765,31 +2135,34 @@
       <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>1200</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="I25" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A25,"\",B25,"\",C25,CHAR(34))</f>
-        <v>"\\MONITORSQL1\Paging File\% Usage\_Total"</v>
-      </c>
       <c r="J25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Paging File(_Total)\% Usage"</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Paging File\% Usage\_Total"</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Paging File(_Total)\% Usage"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -1799,23 +2172,26 @@
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Transfers/sec"</v>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="K26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Transfers/sec"</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -1825,23 +2201,26 @@
       <c r="C27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Reads/sec"</v>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="K27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Reads/sec"</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -1851,23 +2230,26 @@
       <c r="C28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Writes/sec"</v>
       </c>
-      <c r="J28" s="4" t="str">
+      <c r="K28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Writes/sec"</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -1877,23 +2259,26 @@
       <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A29,"\",B29,"\",C29,CHAR(34))</f>
-        <v>"\\MONITORSQL1\Process\% Processor Time\SQLAGENT"</v>
-      </c>
       <c r="J29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Process(SQLAGENT)\% Processor Time"</v>
+      </c>
+      <c r="K29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process\% Processor Time\SQLAGENT"</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Process(SQLAGENT)\% Processor Time"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -1903,23 +2288,26 @@
       <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="4" t="str">
-        <f t="shared" ref="I30:I36" si="3">CONCATENATE(CHAR(34),"\\",$B$2,"\",A30,"\",B30,"\",C30,CHAR(34))</f>
-        <v>"\\MONITORSQL1\Process\% Processor Time\sqlbrowser"</v>
-      </c>
       <c r="J30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Process(sqlbrowser)\% Processor Time"</v>
+      </c>
+      <c r="K30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process\% Processor Time\sqlbrowser"</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Process(sqlbrowser)\% Processor Time"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1929,23 +2317,26 @@
       <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Process\% Processor Time\sqlservr"</v>
-      </c>
       <c r="J31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Process(sqlservr)\% Processor Time"</v>
+      </c>
+      <c r="K31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process\% Processor Time\sqlservr"</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Process(sqlservr)\% Processor Time"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -1955,23 +2346,26 @@
       <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Process\% User Time\sqlservr"</v>
-      </c>
       <c r="J32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Process(sqlservr)\% User Time"</v>
+      </c>
+      <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process\% User Time\sqlservr"</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Process(sqlservr)\% User Time"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1981,23 +2375,26 @@
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Process\% Privileged Time\sqlservr"</v>
-      </c>
       <c r="J33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Process(sqlservr)\% Privileged Time"</v>
+      </c>
+      <c r="K33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process\% Privileged Time\sqlservr"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Process(sqlservr)\% Privileged Time"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -2007,27 +2404,30 @@
       <c r="C34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>600</v>
       </c>
-      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Processor\% Privileged Time\_Total"</v>
-      </c>
       <c r="J34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Processor(_Total)\% Privileged Time"</v>
+      </c>
+      <c r="K34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor\% Privileged Time\_Total"</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Processor(_Total)\% Privileged Time"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -2037,27 +2437,30 @@
       <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>600</v>
       </c>
-      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Processor\% Processor Time\_Total"</v>
-      </c>
       <c r="J35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Processor(_Total)\% Processor Time"</v>
+      </c>
+      <c r="K35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor\% Processor Time\_Total"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Processor(_Total)\% Processor Time"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>93</v>
       </c>
@@ -2067,23 +2470,26 @@
       <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3"/>
+      <c r="I36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="I36" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\Processor\% User Time\_Total"</v>
-      </c>
       <c r="J36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\Processor(_Total)\% User Time"</v>
+      </c>
+      <c r="K36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor\% User Time\_Total"</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"\\MONITORSQL1\Processor(_Total)\% User Time"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>98</v>
       </c>
@@ -2091,23 +2497,26 @@
         <v>3</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3"/>
+      <c r="I37" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A37,"\",B37,CHAR(34))</f>
+      <c r="J37" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Access Methods\Full Scans/sec"</v>
       </c>
-      <c r="J37" s="4" t="str">
-        <f t="shared" ref="J37:J52" si="4">REPLACE(I37,FIND("\SQLServer:",I37),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
+      <c r="K37" s="4" t="str">
+        <f t="shared" ref="K37:K52" si="2">REPLACE(J37,FIND("\SQLServer:",J37),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Full Scans/sec"</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>98</v>
       </c>
@@ -2115,23 +2524,26 @@
         <v>4</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I38" s="4" t="str">
-        <f>CONCATENATE(CHAR(34),"\\",$B$2,"\",A38,"\",B38,CHAR(34))</f>
+      <c r="J38" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Access Methods\Index Searches/sec"</v>
       </c>
-      <c r="J38" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Index Searches/sec"</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -2139,23 +2551,26 @@
         <v>5</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3"/>
+      <c r="I39" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="4" t="str">
-        <f t="shared" ref="I39:I47" si="5">CONCATENATE(CHAR(34),"\\",$B$2,"\",A39,"\",B39,CHAR(34))</f>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Access Methods\Page Splits/sec"</v>
       </c>
-      <c r="J39" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Page Splits/sec"</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>98</v>
       </c>
@@ -2163,23 +2578,26 @@
         <v>96</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I40" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Forwarded Records/sec"</v>
-      </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Forwarded Records/sec"</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Access Methods\Index Searches/sec"</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Index Searches/sec"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
@@ -2187,23 +2605,26 @@
         <v>97</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3"/>
+      <c r="I41" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I41" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\FreeSpace Scans/sec"</v>
-      </c>
       <c r="J41" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\FreeSpace Scans/sec"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Access Methods\Forwarded Records/sec"</v>
+      </c>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Forwarded Records/sec"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>99</v>
       </c>
@@ -2211,31 +2632,34 @@
         <v>6</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>0.3125</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Buffer cache hit ratio"</v>
       </c>
-      <c r="J42" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Buffer cache hit ratio"</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
@@ -2243,23 +2667,26 @@
         <v>7</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Lazy writes/sec"</v>
       </c>
-      <c r="J43" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Lazy writes/sec"</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
@@ -2267,23 +2694,26 @@
         <v>8</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3"/>
+      <c r="I44" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page reads/sec"</v>
       </c>
-      <c r="J44" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page reads/sec"</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
@@ -2291,23 +2721,26 @@
         <v>9</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3"/>
+      <c r="I45" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I45" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page writes/sec"</v>
       </c>
-      <c r="J45" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page writes/sec"</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>99</v>
       </c>
@@ -2315,23 +2748,26 @@
         <v>10</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I46" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Checkpoint pages/sec"</v>
       </c>
-      <c r="J46" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Checkpoint pages/sec"</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -2339,31 +2775,34 @@
         <v>11</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>0.3125</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I47" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page life expectancy"</v>
       </c>
-      <c r="J47" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page life expectancy"</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>105</v>
       </c>
@@ -2373,23 +2812,26 @@
       <c r="C48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3"/>
+      <c r="I48" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I48" s="4" t="str">
-        <f t="shared" ref="I48:I57" si="6">CONCATENATE(CHAR(34),"\\",$B$2,"\",A48,"(*)\",B48,CHAR(34))</f>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Data File(s) Size (KB)"</v>
       </c>
-      <c r="J48" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Data File(s) Size (KB)"</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>105</v>
       </c>
@@ -2399,23 +2841,26 @@
       <c r="C49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log File(s) Size (KB)"</v>
       </c>
-      <c r="J49" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log File(s) Size (KB)"</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>105</v>
       </c>
@@ -2425,23 +2870,26 @@
       <c r="C50" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I50" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log File(s) Used Size (KB)"</v>
       </c>
-      <c r="J50" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log File(s) Used Size (KB)"</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>105</v>
       </c>
@@ -2451,25 +2899,28 @@
       <c r="C51" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I51" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Percent Log Used"</v>
       </c>
-      <c r="J51" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Percent Log Used"</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>105</v>
       </c>
@@ -2479,23 +2930,26 @@
       <c r="C52" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I52" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Active Transactions"</v>
       </c>
-      <c r="J52" s="4" t="str">
-        <f t="shared" si="4"/>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Active Transactions"</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>105</v>
       </c>
@@ -2505,23 +2959,26 @@
       <c r="C53" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I53" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Transactions/sec"</v>
       </c>
-      <c r="J53" s="4" t="str">
-        <f>REPLACE(I53,FIND("\SQLServer:",I53),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
+      <c r="K53" s="4" t="str">
+        <f>REPLACE(J53,FIND("\SQLServer:",J53),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Transactions/sec"</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
@@ -2531,23 +2988,26 @@
       <c r="C54" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3"/>
+      <c r="I54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I54" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flushes/sec"</v>
       </c>
-      <c r="J54" s="4" t="str">
-        <f t="shared" ref="J54:J98" si="7">REPLACE(I54,FIND("\SQLServer:",I54),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
+      <c r="K54" s="4" t="str">
+        <f t="shared" ref="K54:K98" si="3">REPLACE(J54,FIND("\SQLServer:",J54),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flushes/sec"</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>105</v>
       </c>
@@ -2557,23 +3017,26 @@
       <c r="C55" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Bytes Flushed/sec"</v>
       </c>
-      <c r="J55" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Bytes Flushed/sec"</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>105</v>
       </c>
@@ -2583,23 +3046,26 @@
       <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I56" s="4" t="str">
-        <f t="shared" si="6"/>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flush Waits/sec"</v>
       </c>
-      <c r="J56" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flush Waits/sec"</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>105</v>
       </c>
@@ -2609,23 +3075,26 @@
       <c r="C57" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I57" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flush Wait Time"</v>
-      </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flush Wait Time"</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flush Write Time (ms)"</v>
+      </c>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flush Write Time (ms)"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -2633,23 +3102,26 @@
         <v>12</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3"/>
+      <c r="D58" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="4" t="str">
-        <f t="shared" ref="I58:I65" si="8">CONCATENATE(CHAR(34),"\\",$B$2,"\",A58,"\",B58,CHAR(34))</f>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:General Statistics\Active Temp Tables"</v>
       </c>
-      <c r="J58" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Active Temp Tables"</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -2657,23 +3129,26 @@
         <v>13</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I59" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:General Statistics\Logical Connections"</v>
       </c>
-      <c r="J59" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logical Connections"</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>100</v>
       </c>
@@ -2681,23 +3156,26 @@
         <v>14</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3"/>
+      <c r="I60" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I60" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J60" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:General Statistics\Logins/sec"</v>
       </c>
-      <c r="J60" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K60" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logins/sec"</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
@@ -2705,23 +3183,26 @@
         <v>15</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3"/>
+      <c r="I61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I61" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J61" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:General Statistics\Logouts/sec"</v>
       </c>
-      <c r="J61" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K61" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logouts/sec"</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>100</v>
       </c>
@@ -2729,23 +3210,26 @@
         <v>17</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3"/>
+      <c r="I62" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I62" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J62" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:General Statistics\User Connections"</v>
       </c>
-      <c r="J62" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K62" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\User Connections"</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>101</v>
       </c>
@@ -2753,23 +3237,26 @@
         <v>18</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I63" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J63" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Latches\Latch Waits/sec"</v>
       </c>
-      <c r="J63" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K63" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Latch Waits/sec"</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>101</v>
       </c>
@@ -2777,27 +3264,30 @@
         <v>19</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>300</v>
       </c>
-      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I64" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J64" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Latches\Average Latch Wait Time (ms)"</v>
       </c>
-      <c r="J64" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K64" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Average Latch Wait Time (ms)"</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>101</v>
       </c>
@@ -2805,23 +3295,26 @@
         <v>20</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3"/>
+      <c r="I65" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I65" s="4" t="str">
-        <f t="shared" si="8"/>
+      <c r="J65" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>"\\MONITORSQL1\SQLServer:Latches\Total Latch Wait Time (ms)"</v>
       </c>
-      <c r="J65" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K65" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Total Latch Wait Time (ms)"</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>106</v>
       </c>
@@ -2831,23 +3324,26 @@
       <c r="C66" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3"/>
+      <c r="I66" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I66" s="4" t="str">
-        <f t="shared" ref="I66:I72" si="9">CONCATENATE(CHAR(34),"\\",$B$2,"\",A66,"\",B66,"\",C66,CHAR(34))</f>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Lock Requests/sec\_Total"</v>
-      </c>
       <c r="J66" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Lock Requests/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Requests/sec"</v>
+      </c>
+      <c r="K66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Requests/sec"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>106</v>
       </c>
@@ -2857,23 +3353,26 @@
       <c r="C67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3"/>
+      <c r="I67" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I67" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Lock Timeouts/sec\_Total"</v>
-      </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Lock Timeouts/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Timeouts/sec"</v>
+      </c>
+      <c r="K67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts/sec"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>106</v>
       </c>
@@ -2883,27 +3382,30 @@
       <c r="C68" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>60</v>
       </c>
-      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I68" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Number of Deadlocks/sec\_Total"</v>
-      </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Number of Deadlocks/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Number of Deadlocks/sec"</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Number of Deadlocks/sec"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>106</v>
       </c>
@@ -2913,23 +3415,26 @@
       <c r="C69" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3"/>
+      <c r="I69" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I69" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Lock Waits/sec\_Total"</v>
-      </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Lock Waits/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Waits/sec"</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Waits/sec"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>106</v>
       </c>
@@ -2939,23 +3444,26 @@
       <c r="C70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3"/>
+      <c r="I70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I70" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Lock Wait Time (ms)\_Total"</v>
-      </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Lock Wait Time (ms)\_Total"</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Wait Time (ms)"</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Wait Time (ms)"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>106</v>
       </c>
@@ -2965,23 +3473,26 @@
       <c r="C71" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3"/>
+      <c r="I71" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="I71" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Average Wait Time (ms)\_Total"</v>
-      </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Average Wait Time (ms)\_Total"</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Average Wait Time (ms)"</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Average Wait Time (ms)"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>106</v>
       </c>
@@ -2991,23 +3502,26 @@
       <c r="C72" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3"/>
+      <c r="I72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I72" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks\Lock Timeouts (timeout &gt; 0)/sec\_Total"</v>
-      </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks\Lock Timeouts (timeout &gt; 0)/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J72:J99" si="4">CONCATENATE(CHAR(34),"\\",$B$2,D72,CHAR(34))</f>
+        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>102</v>
       </c>
@@ -3015,23 +3529,26 @@
         <v>21</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="3"/>
+      <c r="I73" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I73" s="4" t="str">
-        <f t="shared" ref="I73:I83" si="10">CONCATENATE(CHAR(34),"\\",$B$2,"\",A73,"\",B73,CHAR(34))</f>
+      <c r="J73" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Connection Memory (KB)"</v>
       </c>
-      <c r="J73" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K73" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Connection Memory (KB)"</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>102</v>
       </c>
@@ -3039,23 +3556,26 @@
         <v>22</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="3"/>
+      <c r="I74" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J74" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Database Cache Memory (KB)"</v>
       </c>
-      <c r="J74" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K74" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Database Cache Memory (KB)"</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>102</v>
       </c>
@@ -3063,23 +3583,26 @@
         <v>23</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
+      <c r="D75" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="3"/>
+      <c r="I75" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I75" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J75" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Memory (KB)"</v>
       </c>
-      <c r="J75" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K75" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Memory (KB)"</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>102</v>
       </c>
@@ -3087,23 +3610,26 @@
         <v>24</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="3"/>
+      <c r="I76" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I76" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Blocks Allocated"</v>
-      </c>
       <c r="J76" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Blocks Allocated"</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Owner Blocks Allocated"</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks Allocated"</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>102</v>
       </c>
@@ -3111,23 +3637,26 @@
         <v>25</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
+      <c r="D77" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="3"/>
+      <c r="I77" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I77" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Blocks"</v>
-      </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Blocks"</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Owner Blocks"</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks"</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>102</v>
       </c>
@@ -3135,23 +3664,26 @@
         <v>26</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="3"/>
+      <c r="D78" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="3"/>
+      <c r="I78" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I78" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J78" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Maximum Workspace Memory (KB)"</v>
       </c>
-      <c r="J78" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K78" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Maximum Workspace Memory (KB)"</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>102</v>
       </c>
@@ -3159,27 +3691,30 @@
         <v>27</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <v>0</v>
       </c>
-      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="3"/>
+      <c r="I79" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I79" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J79" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Memory Grants Pending"</v>
       </c>
-      <c r="J79" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K79" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Memory Grants Pending"</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>102</v>
       </c>
@@ -3187,23 +3722,26 @@
         <v>28</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
+      <c r="D80" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3"/>
+      <c r="I80" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I80" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J80" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\SQL Cache Memory (KB)"</v>
       </c>
-      <c r="J80" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K80" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\SQL Cache Memory (KB)"</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>102</v>
       </c>
@@ -3211,23 +3749,26 @@
         <v>29</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="3"/>
+      <c r="D81" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3"/>
+      <c r="I81" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I81" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J81" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Stolen Server Memory (KB)"</v>
       </c>
-      <c r="J81" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K81" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Stolen Server Memory (KB)"</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>102</v>
       </c>
@@ -3235,23 +3776,26 @@
         <v>30</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="3"/>
+      <c r="D82" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="3"/>
+      <c r="I82" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I82" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J82" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Target Server Memory (KB)"</v>
       </c>
-      <c r="J82" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K82" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Target Server Memory (KB)"</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>102</v>
       </c>
@@ -3259,23 +3803,26 @@
         <v>31</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3"/>
+      <c r="D83" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="3"/>
+      <c r="I83" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I83" s="4" t="str">
-        <f t="shared" si="10"/>
+      <c r="J83" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Memory Manager\Total Server Memory (KB)"</v>
       </c>
-      <c r="J83" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K83" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Total Server Memory (KB)"</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>107</v>
       </c>
@@ -3285,23 +3832,26 @@
       <c r="C84" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3"/>
+      <c r="I84" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I84" s="4" t="str">
-        <f t="shared" ref="I84:I88" si="11">CONCATENATE(CHAR(34),"\\",$B$2,"\",A84,"\",B84,"\",C84,CHAR(34))</f>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache\Cache Hit Ratio\_Total"</v>
-      </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache\Cache Hit Ratio\_Total"</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Hit Ratio"</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Hit Ratio"</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>107</v>
       </c>
@@ -3311,23 +3861,26 @@
       <c r="C85" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3"/>
+      <c r="I85" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I85" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache\Cache Pages\_Total"</v>
-      </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache\Cache Pages\_Total"</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Pages"</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Pages"</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>107</v>
       </c>
@@ -3337,23 +3890,26 @@
       <c r="C86" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="3"/>
+      <c r="D86" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3"/>
+      <c r="I86" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I86" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache\Cache Object Counts\_Total"</v>
-      </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache\Cache Object Counts\_Total"</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Object Counts"</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Object Counts"</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>107</v>
       </c>
@@ -3363,23 +3919,26 @@
       <c r="C87" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="3"/>
+      <c r="D87" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="3"/>
+      <c r="I87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I87" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache\Cache Objects in use\_Total"</v>
-      </c>
       <c r="J87" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache\Cache Objects in use\_Total"</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Objects in use"</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Objects in use"</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>108</v>
       </c>
@@ -3389,23 +3948,26 @@
       <c r="C88" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="3"/>
+      <c r="D88" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="3"/>
+      <c r="I88" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I88" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"\\MONITORSQL1\SQLServer:SQL Errors\Errors/sec\_Total"</v>
-      </c>
       <c r="J88" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Errors\Errors/sec\_Total"</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:SQL Errors(*)\*"</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Errors(*)\*"</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
@@ -3413,23 +3975,26 @@
         <v>32</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
+      <c r="D89" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="3"/>
+      <c r="I89" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I89" s="4" t="str">
-        <f t="shared" ref="I89:I99" si="12">CONCATENATE(CHAR(34),"\\",$B$2,"\",A89,"\",B89,CHAR(34))</f>
+      <c r="J89" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:SQL Statistics\Batch Requests/sec"</v>
       </c>
-      <c r="J89" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K89" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\Batch Requests/sec"</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>103</v>
       </c>
@@ -3437,23 +4002,26 @@
         <v>33</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
+      <c r="D90" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="3"/>
+      <c r="I90" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I90" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J90" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:SQL Statistics\SQL Compilations/sec"</v>
       </c>
-      <c r="J90" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K90" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\SQL Compilations/sec"</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>103</v>
       </c>
@@ -3461,23 +4029,26 @@
         <v>34</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
+      <c r="D91" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="3"/>
+      <c r="I91" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I91" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J91" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:SQL Statistics\SQL Re-Compilations/sec"</v>
       </c>
-      <c r="J91" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K91" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\SQL Re-Compilations/sec"</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>104</v>
       </c>
@@ -3485,25 +4056,28 @@
         <v>35</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3"/>
+      <c r="I92" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I92" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J92" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Transactions\Free Space in tempdb (KB)"</v>
       </c>
-      <c r="J92" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K92" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Free Space in tempdb (KB)"</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>104</v>
       </c>
@@ -3511,23 +4085,26 @@
         <v>16</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="3"/>
+      <c r="D93" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="3"/>
+      <c r="I93" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="I93" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J93" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Transactions\Transactions"</v>
       </c>
-      <c r="J93" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K93" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Transactions"</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
@@ -3535,23 +4112,26 @@
         <v>94</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="3"/>
+      <c r="D94" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="3"/>
+      <c r="I94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J94" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Transactions\Version Store Size (KB)"</v>
       </c>
-      <c r="J94" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K94" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Version Store Size (KB)"</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>104</v>
       </c>
@@ -3559,23 +4139,26 @@
         <v>95</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
+      <c r="D95" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="3"/>
+      <c r="I95" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I95" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J95" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\SQLServer:Transactions\Version Store unit count"</v>
       </c>
-      <c r="J95" s="4" t="str">
-        <f t="shared" si="7"/>
+      <c r="K95" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Version Store unit count"</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>109</v>
       </c>
@@ -3585,27 +4168,30 @@
       <c r="C96" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E96" s="5">
+      <c r="F96" s="5">
         <v>300</v>
       </c>
-      <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="3"/>
+      <c r="I96" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I96" s="4" t="str">
-        <f t="shared" ref="I96:I98" si="13">CONCATENATE(CHAR(34),"\\",$B$2,"\",A96,"\",B96,"\",C96,CHAR(34))</f>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits\Average wait time (ms)"</v>
-      </c>
       <c r="J96" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits\Average wait time (ms)"</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Average wait time (ms))\Lock waits"</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Lock waits"</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>109</v>
       </c>
@@ -3615,23 +4201,26 @@
       <c r="C97" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="3"/>
+      <c r="D97" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="3"/>
+      <c r="I97" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I97" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Lock waits\Waits in progress"</v>
-      </c>
       <c r="J97" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Lock waits\Waits in progress"</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Waits in progress)\Lock waits"</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Waits in progress)\Lock waits"</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>109</v>
       </c>
@@ -3641,31 +4230,34 @@
       <c r="C98" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="5">
+      <c r="F98" s="5">
         <v>300</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G98" s="3">
         <v>0.3125</v>
       </c>
-      <c r="G98" s="3">
+      <c r="H98" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I98" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics\Network IO waits\Average wait time (ms)"</v>
-      </c>
       <c r="J98" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics\Network IO waits\Average wait time (ms)"</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>43</v>
       </c>
@@ -3673,52 +4265,53 @@
         <v>44</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E99" s="5">
+      <c r="F99" s="5">
         <v>300</v>
       </c>
-      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="3"/>
+      <c r="I99" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I99" s="4" t="str">
-        <f t="shared" si="12"/>
+      <c r="J99" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>"\\MONITORSQL1\System\Processor Queue Length"</v>
       </c>
-      <c r="J99" s="4" t="str">
-        <f>I99</f>
+      <c r="K99" s="4" t="str">
+        <f>J99</f>
         <v>"\\MONITORSQL1\System\Processor Queue Length"</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F100" s="2"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:J99">
-    <filterColumn colId="5" showButton="0"/>
+  <autoFilter ref="A5:K99">
+    <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <sortState ref="A3:G169">
     <sortCondition ref="A3"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I25" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/PerformanceCounters.xlsx
+++ b/PerformanceCounters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="330">
   <si>
     <t>Memory</t>
   </si>
@@ -728,9 +728,6 @@
     <t>HOST:</t>
   </si>
   <si>
-    <t>MONITORSQL1</t>
-  </si>
-  <si>
     <t>INSTANCJA NAZWANA:</t>
   </si>
   <si>
@@ -1014,6 +1011,12 @@
   </si>
   <si>
     <t>Symbol licznika</t>
+  </si>
+  <si>
+    <t>\SQLServer:Access Methods\FreeSpace Scans/sec</t>
+  </si>
+  <si>
+    <t>MONITORSQL</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,15 +1521,15 @@
         <v>232</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1543,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>123</v>
@@ -1590,7 +1593,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>112</v>
@@ -1605,11 +1608,11 @@
       </c>
       <c r="J7" s="4" t="str">
         <f>CONCATENATE(CHAR(34),"\\",$B$2,D7,CHAR(34))</f>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\% Free Space"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\% Free Space"</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>J7</f>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\% Free Space"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\% Free Space"</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,7 +1626,7 @@
         <v>165</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>114</v>
@@ -1638,11 +1641,11 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ref="J8:J71" si="0">CONCATENATE(CHAR(34),"\\",$B$2,D8,CHAR(34))</f>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Free Megabytes"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Free Megabytes"</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" ref="K8:K36" si="1">J8</f>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Free Megabytes"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Free Megabytes"</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1656,7 +1659,7 @@
         <v>165</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
@@ -1667,11 +1670,11 @@
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Transfers/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Transfers/sec"</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Transfers/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Transfers/sec"</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>165</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -1696,11 +1699,11 @@
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Reads/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Reads/sec"</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Reads/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Reads/sec"</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,7 +1717,7 @@
         <v>165</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
@@ -1725,11 +1728,11 @@
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Writes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Writes/sec"</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Writes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Writes/sec"</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1743,7 +1746,7 @@
         <v>165</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
@@ -1754,11 +1757,11 @@
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk Queue Length"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk Queue Length"</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk Queue Length"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk Queue Length"</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1772,7 +1775,7 @@
         <v>165</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>113</v>
@@ -1791,11 +1794,11 @@
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Read"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk sec/Read"</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Read"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk sec/Read"</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1809,7 +1812,7 @@
         <v>165</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>113</v>
@@ -1828,11 +1831,11 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Write"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk sec/Write"</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Avg. Disk sec/Write"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Avg. Disk sec/Write"</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,7 +1849,7 @@
         <v>165</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1857,11 +1860,11 @@
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Bytes/sec"</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Bytes/sec"</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1875,7 +1878,7 @@
         <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1886,11 +1889,11 @@
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Read Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Read Bytes/sec"</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Read Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Read Bytes/sec"</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1904,7 +1907,7 @@
         <v>165</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -1915,11 +1918,11 @@
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Write Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Write Bytes/sec"</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\Disk Write Bytes/sec"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\Disk Write Bytes/sec"</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,7 +1936,7 @@
         <v>165</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
@@ -1944,11 +1947,11 @@
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\% Idle Time"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\% Idle Time"</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\LogicalDisk(*)\% Idle Time"</v>
+        <v>"\\MONITORSQL\LogicalDisk(*)\% Idle Time"</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1960,7 +1963,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -1971,11 +1974,11 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Memory\Pages/sec"</v>
+        <v>"\\MONITORSQL\Memory\Pages/sec"</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Memory\Pages/sec"</v>
+        <v>"\\MONITORSQL\Memory\Pages/sec"</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,7 +1990,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>138</v>
@@ -2002,11 +2005,11 @@
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Memory\Available MBytes"</v>
+        <v>"\\MONITORSQL\Memory\Available MBytes"</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Memory\Available MBytes"</v>
+        <v>"\\MONITORSQL\Memory\Available MBytes"</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,7 +2023,7 @@
         <v>166</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
@@ -2031,11 +2034,11 @@
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Total/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Total/sec"</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Total/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Total/sec"</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
         <v>166</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Received/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Received/sec"</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Received/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Received/sec"</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2078,7 +2081,7 @@
         <v>166</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
@@ -2089,11 +2092,11 @@
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Sent/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Sent/sec"</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Bytes Sent/sec"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Bytes Sent/sec"</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2107,7 +2110,7 @@
         <v>166</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
@@ -2118,11 +2121,11 @@
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Output Queue Length"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Output Queue Length"</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Network Interface(*)\Output Queue Length"</v>
+        <v>"\\MONITORSQL\Network Interface(*)\Output Queue Length"</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2136,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>116</v>
@@ -2155,11 +2158,11 @@
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Paging File(_Total)\% Usage"</v>
+        <v>"\\MONITORSQL\Paging File(_Total)\% Usage"</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Paging File(_Total)\% Usage"</v>
+        <v>"\\MONITORSQL\Paging File(_Total)\% Usage"</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,7 +2176,7 @@
         <v>165</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
@@ -2184,11 +2187,11 @@
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Transfers/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Transfers/sec"</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Transfers/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Transfers/sec"</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2202,7 +2205,7 @@
         <v>165</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Reads/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Reads/sec"</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Reads/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Reads/sec"</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2231,7 +2234,7 @@
         <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
@@ -2242,11 +2245,11 @@
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Writes/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Writes/sec"</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\PhysicalDisk(*)\Disk Writes/sec"</v>
+        <v>"\\MONITORSQL\PhysicalDisk(*)\Disk Writes/sec"</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2260,7 +2263,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
@@ -2271,11 +2274,11 @@
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Process(SQLAGENT)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(SQLAGENT)\% Processor Time"</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process(SQLAGENT)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(SQLAGENT)\% Processor Time"</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Process(sqlbrowser)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(sqlbrowser)\% Processor Time"</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process(sqlbrowser)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(sqlbrowser)\% Processor Time"</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2318,7 +2321,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
@@ -2329,11 +2332,11 @@
       </c>
       <c r="J31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% Processor Time"</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% Processor Time"</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2347,7 +2350,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
@@ -2358,11 +2361,11 @@
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% User Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% User Time"</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% User Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% User Time"</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,7 +2379,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="J33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% Privileged Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% Privileged Time"</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Process(sqlservr)\% Privileged Time"</v>
+        <v>"\\MONITORSQL\Process(sqlservr)\% Privileged Time"</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2405,7 +2408,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>129</v>
@@ -2420,11 +2423,11 @@
       </c>
       <c r="J34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% Privileged Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% Privileged Time"</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% Privileged Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% Privileged Time"</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>128</v>
@@ -2453,11 +2456,11 @@
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% Processor Time"</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% Processor Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% Processor Time"</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2471,7 +2474,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
@@ -2482,11 +2485,11 @@
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% User Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% User Time"</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>"\\MONITORSQL1\Processor(_Total)\% User Time"</v>
+        <v>"\\MONITORSQL\Processor(_Total)\% User Time"</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2498,7 +2501,7 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
@@ -2509,11 +2512,11 @@
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Full Scans/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Access Methods\Full Scans/sec"</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" ref="K37:K52" si="2">REPLACE(J37,FIND("\SQLServer:",J37),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Full Scans/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Access Methods\Full Scans/sec"</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,7 +2528,7 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
@@ -2536,11 +2539,11 @@
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Index Searches/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Access Methods\Index Searches/sec"</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Index Searches/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Access Methods\Index Searches/sec"</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2552,7 +2555,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="5"/>
@@ -2563,11 +2566,11 @@
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Page Splits/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Access Methods\Page Splits/sec"</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Page Splits/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Access Methods\Page Splits/sec"</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2579,7 +2582,7 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
@@ -2590,11 +2593,11 @@
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Index Searches/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Access Methods\Forwarded Records/sec"</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Index Searches/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Access Methods\Forwarded Records/sec"</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2606,7 +2609,7 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
@@ -2617,11 +2620,11 @@
       </c>
       <c r="J41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Access Methods\Forwarded Records/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Access Methods\FreeSpace Scans/sec"</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Access Methods\Forwarded Records/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Access Methods\FreeSpace Scans/sec"</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2633,7 +2636,7 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>136</v>
@@ -2652,11 +2655,11 @@
       </c>
       <c r="J42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Buffer cache hit ratio"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Buffer cache hit ratio"</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Buffer cache hit ratio"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Buffer cache hit ratio"</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2668,7 +2671,7 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
@@ -2679,11 +2682,11 @@
       </c>
       <c r="J43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Lazy writes/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Lazy writes/sec"</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Lazy writes/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Lazy writes/sec"</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2695,7 +2698,7 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
@@ -2706,11 +2709,11 @@
       </c>
       <c r="J44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page reads/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Page reads/sec"</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page reads/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Page reads/sec"</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,7 +2725,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
@@ -2733,11 +2736,11 @@
       </c>
       <c r="J45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page writes/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Page writes/sec"</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page writes/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Page writes/sec"</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2749,7 +2752,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
@@ -2760,11 +2763,11 @@
       </c>
       <c r="J46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Checkpoint pages/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Checkpoint pages/sec"</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Checkpoint pages/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Checkpoint pages/sec"</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>110</v>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="J47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Buffer Manager\Page life expectancy"</v>
+        <v>"\\MONITORSQL\SQLServer:Buffer Manager\Page life expectancy"</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Buffer Manager\Page life expectancy"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Buffer Manager\Page life expectancy"</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2813,7 +2816,7 @@
         <v>167</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
@@ -2824,11 +2827,11 @@
       </c>
       <c r="J48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Data File(s) Size (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Data File(s) Size (KB)"</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Data File(s) Size (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Data File(s) Size (KB)"</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,7 +2845,7 @@
         <v>167</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
@@ -2853,11 +2856,11 @@
       </c>
       <c r="J49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log File(s) Size (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log File(s) Size (KB)"</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log File(s) Size (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log File(s) Size (KB)"</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2871,7 +2874,7 @@
         <v>167</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="J50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log File(s) Used Size (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log File(s) Used Size (KB)"</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log File(s) Used Size (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log File(s) Used Size (KB)"</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,7 +2903,7 @@
         <v>167</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>115</v>
@@ -2913,11 +2916,11 @@
       </c>
       <c r="J51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Percent Log Used"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Percent Log Used"</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Percent Log Used"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Percent Log Used"</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +2934,7 @@
         <v>167</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="5"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="J52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Active Transactions"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Active Transactions"</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Active Transactions"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Active Transactions"</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2960,7 +2963,7 @@
         <v>167</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="5"/>
@@ -2971,11 +2974,11 @@
       </c>
       <c r="J53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Transactions/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Transactions/sec"</v>
       </c>
       <c r="K53" s="4" t="str">
         <f>REPLACE(J53,FIND("\SQLServer:",J53),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Transactions/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Transactions/sec"</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2989,7 +2992,7 @@
         <v>167</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="5"/>
@@ -3000,11 +3003,11 @@
       </c>
       <c r="J54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flushes/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log Flushes/sec"</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" ref="K54:K98" si="3">REPLACE(J54,FIND("\SQLServer:",J54),11,CONCATENATE("\MSSQL$",$B$3,":"))</f>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flushes/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log Flushes/sec"</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,7 +3021,7 @@
         <v>167</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="5"/>
@@ -3029,11 +3032,11 @@
       </c>
       <c r="J55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Bytes Flushed/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log Bytes Flushed/sec"</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Bytes Flushed/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log Bytes Flushed/sec"</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3047,7 +3050,7 @@
         <v>167</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
@@ -3058,11 +3061,11 @@
       </c>
       <c r="J56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flush Waits/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log Flush Waits/sec"</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flush Waits/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log Flush Waits/sec"</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,7 +3079,7 @@
         <v>167</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
@@ -3087,11 +3090,11 @@
       </c>
       <c r="J57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Databases(*)\Log Flush Write Time (ms)"</v>
+        <v>"\\MONITORSQL\SQLServer:Databases(*)\Log Flush Write Time (ms)"</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Databases(*)\Log Flush Write Time (ms)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Databases(*)\Log Flush Write Time (ms)"</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3103,7 +3106,7 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="5"/>
@@ -3114,11 +3117,11 @@
       </c>
       <c r="J58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:General Statistics\Active Temp Tables"</v>
+        <v>"\\MONITORSQL\SQLServer:General Statistics\Active Temp Tables"</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Active Temp Tables"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:General Statistics\Active Temp Tables"</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3130,7 +3133,7 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="5"/>
@@ -3141,11 +3144,11 @@
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:General Statistics\Logical Connections"</v>
+        <v>"\\MONITORSQL\SQLServer:General Statistics\Logical Connections"</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logical Connections"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:General Statistics\Logical Connections"</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3157,7 +3160,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="5"/>
@@ -3168,11 +3171,11 @@
       </c>
       <c r="J60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:General Statistics\Logins/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:General Statistics\Logins/sec"</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logins/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:General Statistics\Logins/sec"</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3184,7 +3187,7 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
@@ -3195,11 +3198,11 @@
       </c>
       <c r="J61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:General Statistics\Logouts/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:General Statistics\Logouts/sec"</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\Logouts/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:General Statistics\Logouts/sec"</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3211,7 +3214,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="5"/>
@@ -3222,11 +3225,11 @@
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:General Statistics\User Connections"</v>
+        <v>"\\MONITORSQL\SQLServer:General Statistics\User Connections"</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:General Statistics\User Connections"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:General Statistics\User Connections"</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3238,7 +3241,7 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="5"/>
@@ -3249,11 +3252,11 @@
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Latches\Latch Waits/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Latches\Latch Waits/sec"</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Latch Waits/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Latches\Latch Waits/sec"</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>154</v>
@@ -3280,11 +3283,11 @@
       </c>
       <c r="J64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Latches\Average Latch Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\SQLServer:Latches\Average Latch Wait Time (ms)"</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Average Latch Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Latches\Average Latch Wait Time (ms)"</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3296,7 +3299,7 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="5"/>
@@ -3307,11 +3310,11 @@
       </c>
       <c r="J65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Latches\Total Latch Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\SQLServer:Latches\Total Latch Wait Time (ms)"</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Latches\Total Latch Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Latches\Total Latch Wait Time (ms)"</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3325,7 +3328,7 @@
         <v>47</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="5"/>
@@ -3336,11 +3339,11 @@
       </c>
       <c r="J66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Requests/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Lock Requests/sec"</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Requests/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Lock Requests/sec"</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3354,7 +3357,7 @@
         <v>47</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
@@ -3365,11 +3368,11 @@
       </c>
       <c r="J67" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Timeouts/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Lock Timeouts/sec"</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts/sec"</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3383,7 +3386,7 @@
         <v>47</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>111</v>
@@ -3398,11 +3401,11 @@
       </c>
       <c r="J68" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Number of Deadlocks/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Number of Deadlocks/sec"</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Number of Deadlocks/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Number of Deadlocks/sec"</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3416,7 +3419,7 @@
         <v>47</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="5"/>
@@ -3427,11 +3430,11 @@
       </c>
       <c r="J69" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Waits/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Lock Waits/sec"</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Waits/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Lock Waits/sec"</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3445,7 +3448,7 @@
         <v>47</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -3456,11 +3459,11 @@
       </c>
       <c r="J70" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Lock Wait Time (ms)"</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Lock Wait Time (ms)"</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3474,7 +3477,7 @@
         <v>47</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="5"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="J71" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Average Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Average Wait Time (ms)"</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Average Wait Time (ms)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Average Wait Time (ms)"</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3503,7 +3506,7 @@
         <v>47</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="5"/>
@@ -3514,11 +3517,11 @@
       </c>
       <c r="J72" s="4" t="str">
         <f t="shared" ref="J72:J99" si="4">CONCATENATE(CHAR(34),"\\",$B$2,D72,CHAR(34))</f>
-        <v>"\\MONITORSQL1\SQLServer:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Locks(_Total)\Lock Timeouts (timeout &amp;gt; 0)/sec"</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3530,7 +3533,7 @@
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="5"/>
@@ -3541,11 +3544,11 @@
       </c>
       <c r="J73" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Connection Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Connection Memory (KB)"</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Connection Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Connection Memory (KB)"</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3557,7 +3560,7 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="5"/>
@@ -3568,11 +3571,11 @@
       </c>
       <c r="J74" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Database Cache Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Database Cache Memory (KB)"</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Database Cache Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Database Cache Memory (KB)"</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3584,7 +3587,7 @@
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="5"/>
@@ -3595,11 +3598,11 @@
       </c>
       <c r="J75" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Lock Memory (KB)"</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Lock Memory (KB)"</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3611,7 +3614,7 @@
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
@@ -3622,11 +3625,11 @@
       </c>
       <c r="J76" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Owner Blocks Allocated"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Lock Owner Blocks Allocated"</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks Allocated"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks Allocated"</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3638,7 +3641,7 @@
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="5"/>
@@ -3649,11 +3652,11 @@
       </c>
       <c r="J77" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Lock Owner Blocks"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Lock Owner Blocks"</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Lock Owner Blocks"</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3665,7 +3668,7 @@
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="5"/>
@@ -3676,11 +3679,11 @@
       </c>
       <c r="J78" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Maximum Workspace Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Maximum Workspace Memory (KB)"</v>
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Maximum Workspace Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Maximum Workspace Memory (KB)"</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3692,7 +3695,7 @@
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>111</v>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="J79" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Memory Grants Pending"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Memory Grants Pending"</v>
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Memory Grants Pending"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Memory Grants Pending"</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3726,7 @@
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="5"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="J80" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\SQL Cache Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\SQL Cache Memory (KB)"</v>
       </c>
       <c r="K80" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\SQL Cache Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\SQL Cache Memory (KB)"</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3750,7 +3753,7 @@
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="5"/>
@@ -3761,11 +3764,11 @@
       </c>
       <c r="J81" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Stolen Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Stolen Server Memory (KB)"</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Stolen Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Stolen Server Memory (KB)"</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3777,7 +3780,7 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="5"/>
@@ -3788,11 +3791,11 @@
       </c>
       <c r="J82" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Target Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Target Server Memory (KB)"</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Target Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Target Server Memory (KB)"</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3804,7 +3807,7 @@
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="5"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="J83" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Memory Manager\Total Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Memory Manager\Total Server Memory (KB)"</v>
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Memory Manager\Total Server Memory (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Memory Manager\Total Server Memory (KB)"</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3833,7 +3836,7 @@
         <v>47</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="5"/>
@@ -3844,11 +3847,11 @@
       </c>
       <c r="J84" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Hit Ratio"</v>
+        <v>"\\MONITORSQL\SQLServer:Plan Cache(_Total)\Cache Hit Ratio"</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Hit Ratio"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Hit Ratio"</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3862,7 +3865,7 @@
         <v>47</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="5"/>
@@ -3873,11 +3876,11 @@
       </c>
       <c r="J85" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Pages"</v>
+        <v>"\\MONITORSQL\SQLServer:Plan Cache(_Total)\Cache Pages"</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Pages"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Pages"</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3891,7 +3894,7 @@
         <v>47</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="5"/>
@@ -3902,11 +3905,11 @@
       </c>
       <c r="J86" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Object Counts"</v>
+        <v>"\\MONITORSQL\SQLServer:Plan Cache(_Total)\Cache Object Counts"</v>
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Object Counts"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Object Counts"</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3920,7 +3923,7 @@
         <v>47</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
@@ -3931,11 +3934,11 @@
       </c>
       <c r="J87" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Plan Cache(_Total)\Cache Objects in use"</v>
+        <v>"\\MONITORSQL\SQLServer:Plan Cache(_Total)\Cache Objects in use"</v>
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Objects in use"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Plan Cache(_Total)\Cache Objects in use"</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,7 +3952,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
@@ -3960,11 +3963,11 @@
       </c>
       <c r="J88" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:SQL Errors(*)\*"</v>
+        <v>"\\MONITORSQL\SQLServer:SQL Errors(*)\*"</v>
       </c>
       <c r="K88" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Errors(*)\*"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:SQL Errors(*)\*"</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,7 +3979,7 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="5"/>
@@ -3987,11 +3990,11 @@
       </c>
       <c r="J89" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:SQL Statistics\Batch Requests/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:SQL Statistics\Batch Requests/sec"</v>
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\Batch Requests/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:SQL Statistics\Batch Requests/sec"</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4003,7 +4006,7 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="5"/>
@@ -4014,11 +4017,11 @@
       </c>
       <c r="J90" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:SQL Statistics\SQL Compilations/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:SQL Statistics\SQL Compilations/sec"</v>
       </c>
       <c r="K90" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\SQL Compilations/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:SQL Statistics\SQL Compilations/sec"</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4030,7 +4033,7 @@
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="5"/>
@@ -4041,11 +4044,11 @@
       </c>
       <c r="J91" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:SQL Statistics\SQL Re-Compilations/sec"</v>
+        <v>"\\MONITORSQL\SQLServer:SQL Statistics\SQL Re-Compilations/sec"</v>
       </c>
       <c r="K91" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:SQL Statistics\SQL Re-Compilations/sec"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:SQL Statistics\SQL Re-Compilations/sec"</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4057,7 +4060,7 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>226</v>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="J92" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Transactions\Free Space in tempdb (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Transactions\Free Space in tempdb (KB)"</v>
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Free Space in tempdb (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Transactions\Free Space in tempdb (KB)"</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4086,7 +4089,7 @@
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="5"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="J93" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Transactions\Transactions"</v>
+        <v>"\\MONITORSQL\SQLServer:Transactions\Transactions"</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Transactions"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Transactions\Transactions"</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4113,7 +4116,7 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="5"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Transactions\Version Store Size (KB)"</v>
+        <v>"\\MONITORSQL\SQLServer:Transactions\Version Store Size (KB)"</v>
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Version Store Size (KB)"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Transactions\Version Store Size (KB)"</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4140,7 +4143,7 @@
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="5"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="J95" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Transactions\Version Store unit count"</v>
+        <v>"\\MONITORSQL\SQLServer:Transactions\Version Store unit count"</v>
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Transactions\Version Store unit count"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Transactions\Version Store unit count"</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4169,7 +4172,7 @@
         <v>82</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>117</v>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Average wait time (ms))\Lock waits"</v>
+        <v>"\\MONITORSQL\SQLServer:Wait Statistics(Average wait time (ms))\Lock waits"</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Lock waits"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Lock waits"</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,7 +4205,7 @@
         <v>83</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="5"/>
@@ -4213,11 +4216,11 @@
       </c>
       <c r="J97" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Waits in progress)\Lock waits"</v>
+        <v>"\\MONITORSQL\SQLServer:Wait Statistics(Waits in progress)\Lock waits"</v>
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Waits in progress)\Lock waits"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Wait Statistics(Waits in progress)\Lock waits"</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,7 +4234,7 @@
         <v>82</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>111</v>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\SQLServer:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
+        <v>"\\MONITORSQL\SQLServer:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"\\MONITORSQL1\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
+        <v>"\\MONITORSQL\MSSQL$SQLInstance:Wait Statistics(Average wait time (ms))\Network IO waits"</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4266,7 +4269,7 @@
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>118</v>
@@ -4281,11 +4284,11 @@
       </c>
       <c r="J99" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>"\\MONITORSQL1\System\Processor Queue Length"</v>
+        <v>"\\MONITORSQL\System\Processor Queue Length"</v>
       </c>
       <c r="K99" s="4" t="str">
         <f>J99</f>
-        <v>"\\MONITORSQL1\System\Processor Queue Length"</v>
+        <v>"\\MONITORSQL\System\Processor Queue Length"</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
